--- a/output/final_table/all_mse.xlsx
+++ b/output/final_table/all_mse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengyingli/Mengying_PHD/pure_repo/output/final_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0219D70-F1F0-3A4D-B62F-59A80CC6C50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C6EFA-AB79-EB4F-B990-DED92307987F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22440" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="460" windowWidth="24420" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +947,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,12 +969,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,11 +1316,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1514,7 +1533,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="2"/>
@@ -1744,7 +1763,7 @@
       <c r="I11" t="s">
         <v>104</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1967,7 +1986,7 @@
         <v>150</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>151</v>
       </c>
       <c r="L17" s="2"/>
@@ -2197,7 +2216,7 @@
       <c r="I23" t="s">
         <v>199</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2420,7 +2439,7 @@
         <v>247</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="3" t="s">
         <v>248</v>
       </c>
       <c r="L29" s="2"/>
@@ -2650,7 +2669,7 @@
       <c r="I35" t="s">
         <v>288</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="3" t="s">
         <v>289</v>
       </c>
     </row>
